--- a/xlsx/纽约州_intext.xlsx
+++ b/xlsx/纽约州_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="704">
   <si>
     <t>纽约州</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_纽约州</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_纽约州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E%E5%B7%9E%E6%97%97</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>民主黨 (美國)</t>
+    <t>民主党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E%E5%89%AF%E5%B7%9E%E9%95%BF</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%88%BE%E6%96%AF%E6%BB%95%C2%B7%E5%90%89%E5%88%A9%E5%B8%83%E8%98%AD%E5%BE%B7</t>
   </si>
   <si>
-    <t>基爾斯滕·吉利布蘭德</t>
+    <t>基尔斯滕·吉利布兰德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州縮寫列表</t>
+    <t>美国各州缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
@@ -263,31 +263,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%B8%BD%E9%83%A8%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>聯合國總部大樓</t>
+    <t>联合国总部大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%93%88%E9%A0%93</t>
   </si>
   <si>
-    <t>曼哈頓</t>
+    <t>曼哈顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%B7%B4%E5%B0%BC</t>
   </si>
   <si>
-    <t>奧巴尼</t>
+    <t>奥巴尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E%E8%AD%B0%E6%9C%83%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>紐約州議會大廈</t>
+    <t>纽约州议会大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%93%88%E9%A0%93%E4%B8%AD%E5%9F%8E</t>
   </si>
   <si>
-    <t>曼哈頓中城</t>
+    <t>曼哈顿中城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%8D%8E%E5%9F%A0</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%AC%AC%E5%80%AB%E9%81%94%E5%85%8B%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>阿第倫達克山脈</t>
+    <t>阿第伦达克山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%A5%B3%E7%A5%9E%E5%83%8F</t>
@@ -323,13 +323,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E5%B3%B6_(%E7%B4%90%E7%B4%84)</t>
   </si>
   <si>
-    <t>長島 (紐約)</t>
+    <t>长岛 (纽约)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%88%BE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>康乃爾大學</t>
+    <t>康乃尔大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E8%90%A8%E5%8D%A1_(%E7%BA%BD%E7%BA%A6%E5%B7%9E)</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B2%BF%E6%98%93%E4%B8%AD%E5%BF%83%E4%B8%80%E8%99%9F%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>世界貿易中心一號大樓</t>
+    <t>世界贸易中心一号大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%93%88%E9%A1%BF%E4%B8%8B%E5%9F%8E</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B9%E6%96%AF%E7%89%B9_(%E7%B4%90%E7%B4%84%E5%B7%9E)</t>
   </si>
   <si>
-    <t>羅徹斯特 (紐約州)</t>
+    <t>罗彻斯特 (纽约州)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Eastman_Theatre</t>
@@ -377,19 +377,16 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E5%9F%8E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>雪城大學</t>
+    <t>雪城大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9D%B1%E5%8C%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國東北部</t>
+    <t>美国东北部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E</t>
@@ -401,21 +398,15 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E7%88%BE%E5%B7%B4%E5%B0%BC</t>
   </si>
   <si>
-    <t>奧爾巴尼</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E4%B8%8A%E5%B7%9E</t>
   </si>
   <si>
-    <t>紐約上州</t>
+    <t>纽约上州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
   </si>
   <si>
-    <t>紐約市</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
   </si>
   <si>
@@ -479,25 +470,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84</t>
   </si>
   <si>
-    <t>紐約</t>
+    <t>纽约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%A4%A7%E6%B9%96%E5%8D%80</t>
   </si>
   <si>
-    <t>五大湖區</t>
+    <t>五大湖区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E4%BA%9E%E5%8A%A0%E6%8B%89%E6%B2%B3</t>
   </si>
   <si>
-    <t>尼亞加拉河</t>
+    <t>尼亚加拉河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%B0%E6%99%AE%E8%98%AD%E6%B9%96</t>
   </si>
   <si>
-    <t>恰普蘭湖</t>
+    <t>恰普兰湖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A4%A7%E7%95%A5%E7%9C%81</t>
@@ -509,7 +500,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%8B%9E%E5%80%AB%E6%96%AF%E6%B2%B3</t>
   </si>
   <si>
-    <t>聖勞倫斯河</t>
+    <t>圣劳伦斯河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%81%E5%8C%97%E5%85%8B%E7%9C%81</t>
@@ -521,7 +512,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
@@ -533,15 +524,9 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%BE%A4%E8%A5%BF%E5%B7%9E</t>
   </si>
   <si>
-    <t>新澤西州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>賓夕法尼亞州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A5%BF%E6%B4%8B</t>
   </si>
   <si>
@@ -551,49 +536,49 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%BE%B7%E9%81%9C%E6%B2%B3</t>
   </si>
   <si>
-    <t>哈德遜河</t>
+    <t>哈德逊河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93</t>
   </si>
   <si>
-    <t>波士頓</t>
+    <t>波士顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>維吉尼亞州</t>
+    <t>维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E7%89%B9%E5%8D%80</t>
   </si>
   <si>
-    <t>華盛頓特區</t>
+    <t>华盛顿特区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%93%88%E9%A0%93%E5%B3%B6</t>
   </si>
   <si>
-    <t>曼哈頓島</t>
+    <t>曼哈顿岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E5%9D%A6%E9%A0%93%E5%B3%B6</t>
   </si>
   <si>
-    <t>史坦頓島</t>
+    <t>史坦顿岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%AD%AF%E5%85%8B%E6%9E%97%E5%8D%80</t>
   </si>
   <si>
-    <t>布魯克林區</t>
+    <t>布鲁克林区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%90%8E%E5%8D%80</t>
   </si>
   <si>
-    <t>皇后區</t>
+    <t>皇后区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%A1</t>
@@ -611,13 +596,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%80</t>
   </si>
   <si>
-    <t>區</t>
+    <t>区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%AD%AF%E5%85%8B%E6%9E%97</t>
   </si>
   <si>
-    <t>布魯克林</t>
+    <t>布鲁克林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%9C%97%E5%85%8B%E6%96%AF</t>
@@ -629,7 +614,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E6%B3%B0%E7%99%BB%E5%B3%B6</t>
   </si>
   <si>
-    <t>史泰登島</t>
+    <t>史泰登岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/GDP</t>
@@ -653,79 +638,79 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1890%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1890年人口普查</t>
+    <t>美国1890年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1900%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1900年人口普查</t>
+    <t>美国1900年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1910%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1910年人口普查</t>
+    <t>美国1910年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1920%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1920年人口普查</t>
+    <t>美国1920年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1930%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1930年人口普查</t>
+    <t>美国1930年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1940%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1940年人口普查</t>
+    <t>美国1940年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1950%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1950年人口普查</t>
+    <t>美国1950年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1960%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1960年人口普查</t>
+    <t>美国1960年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1970%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1970年人口普查</t>
+    <t>美国1970年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1980%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1980年人口普查</t>
+    <t>美国1980年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1990%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1990年人口普查</t>
+    <t>美国1990年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B2000%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國2000年人口普查</t>
+    <t>美国2000年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B2010%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國2010年人口普查</t>
+    <t>美国2010年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3%E8%B0%83%E6%9F%A5%E5%B1%80</t>
@@ -767,7 +752,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E9%AB%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>華盛頓高地</t>
+    <t>华盛顿高地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B8%83%E9%87%8C%E5%B0%BC%E4%BF%AE%E5%A5%B3</t>
@@ -791,13 +776,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%95%99</t>
   </si>
   <si>
-    <t>猶太教</t>
+    <t>犹太教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99</t>
   </si>
   <si>
-    <t>伊斯蘭教</t>
+    <t>伊斯兰教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B8%E7%A4%BC%E4%BC%9A</t>
@@ -809,31 +794,28 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E7%90%86%E5%85%AC%E6%9C%83%E6%B4%BE</t>
   </si>
   <si>
-    <t>衛理公會派</t>
+    <t>卫理公会派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E5%BE%B7%E6%9C%83</t>
   </si>
   <si>
-    <t>路德會</t>
+    <t>路德会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%80%E7%BE%85%E7%B8%A3_(%E7%B4%90%E7%B4%84%E5%B7%9E)</t>
   </si>
   <si>
-    <t>門羅縣 (紐約州)</t>
+    <t>门罗县 (纽约州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E</t>
   </si>
   <si>
-    <t>紐約州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E7%B8%A3_(%E7%B4%90%E7%B4%84%E5%B7%9E)</t>
   </si>
   <si>
-    <t>伊利縣 (紐約州)</t>
+    <t>伊利县 (纽约州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E5%A0%A1</t>
@@ -851,7 +833,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E7%88%BE%E5%B7%B4%E5%B0%BC%E7%B8%A3_(%E7%B4%90%E7%B4%84%E5%B7%9E)</t>
   </si>
   <si>
-    <t>奧爾巴尼縣 (紐約州)</t>
+    <t>奥尔巴尼县 (纽约州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%94%A1%E6%8B%89%E4%B8%98%E5%85%B9_(%E7%BA%BD%E7%BA%A6%E5%B7%9E)</t>
@@ -869,7 +851,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E5%A5%A7%E6%9C%AC%E5%B0%BC%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>紐約州立大學奧本尼分校</t>
+    <t>纽约州立大学奥本尼分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E6%B1%89%E9%A1%BF%E5%A4%A7%E5%AD%A6</t>
@@ -881,7 +863,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E6%B0%B4%E7%89%9B%E5%9F%8E%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>紐約州立大學水牛城分校</t>
+    <t>纽约州立大学水牛城分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%BA%AA%E5%A4%A7%E5%AD%A6</t>
@@ -893,13 +875,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>哥倫比亞大學</t>
+    <t>哥伦比亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>紐約市立大學</t>
+    <t>纽约市立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%9D%A6%E8%8E%AB%E5%A4%A7%E5%AD%A6</t>
@@ -917,25 +899,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>紐約大學</t>
+    <t>纽约大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E6%96%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>佩斯大學</t>
+    <t>佩斯大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E7%91%9E%E7%89%B9%E8%97%9D%E8%A1%93%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>普瑞特藝術學院</t>
+    <t>普瑞特艺术学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8B%A5%E6%9C%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖若望大學</t>
+    <t>圣若望大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%8E%E6%8B%89%E5%8A%B3%E4%BC%A6%E6%96%AF%E5%AD%A6%E9%99%A2</t>
@@ -953,31 +935,28 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89%E5%85%8B%E6%A3%AE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>克拉克森大學</t>
+    <t>克拉克森大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%88%BE%E5%82%91%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>科爾傑大學</t>
+    <t>科尔杰大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E5%B0%94%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
-    <t>康乃尔大学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AF%E6%9F%8F%E8%81%AF%E7%9B%9F%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>柯柏聯盟學院</t>
+    <t>柯柏联盟学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%AC%E8%89%B2%E5%88%97%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>壬色列理工學院</t>
+    <t>壬色列理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E5%BD%BB%E6%96%AF%E7%89%B9%E7%90%86%E5%B7%A5%E5%AD%A6%E9%99%A2</t>
@@ -989,7 +968,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B9%E6%96%AF%E7%89%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>羅徹斯特大學</t>
+    <t>罗彻斯特大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%82%B9%E5%86%9B%E6%A0%A1</t>
@@ -1001,67 +980,67 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E9%90%B5</t>
   </si>
   <si>
-    <t>美鐵</t>
+    <t>美铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%9C%B0%E9%90%B5</t>
   </si>
   <si>
-    <t>紐約地鐵</t>
+    <t>纽约地铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%83%BD%E6%9C%83%E5%8C%97%E6%96%B9%E9%90%B5%E8%B7%AF</t>
   </si>
   <si>
-    <t>大都會北方鐵路</t>
+    <t>大都会北方铁路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E5%B3%B6%E9%90%B5%E8%B7%AF</t>
   </si>
   <si>
-    <t>長島鐵路</t>
+    <t>长岛铁路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%98%E8%BF%BA%E8%BF%AA%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>甘迺迪國際機場</t>
+    <t>甘迺迪国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E7%BE%8E%E8%88%AA%E7%A9%BA</t>
   </si>
   <si>
-    <t>達美航空</t>
+    <t>达美航空</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%93%9C%E5%9C%B0%E4%BA%9E%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>拉瓜地亞機場</t>
+    <t>拉瓜地亚机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E%E6%94%B6%E8%B2%BB%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>紐約州收費公路</t>
+    <t>纽约州收费公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/81%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>81號州際公路</t>
+    <t>81号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/87%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>87號州際公路</t>
+    <t>87号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/95%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>95號州際公路</t>
+    <t>95号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/78%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF</t>
@@ -1085,7 +1064,7 @@
     <t>https://zh.wikipedia.org/wiki/88%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF_(%E6%9D%B1%E6%AE%B5)</t>
   </si>
   <si>
-    <t>88號州際公路 (東段)</t>
+    <t>88号州际公路 (东段)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NFL</t>
@@ -1097,19 +1076,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%A8%E4%BA%BA</t>
   </si>
   <si>
-    <t>紐約巨人</t>
+    <t>纽约巨人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E6%BE%A4%E8%A5%BF%E5%B7%9E</t>
   </si>
   <si>
-    <t>紐澤西州</t>
+    <t>纽泽西州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%99%B4%E5%B0%84%E6%A9%9F</t>
   </si>
   <si>
-    <t>紐約噴射機</t>
+    <t>纽约喷射机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E7%89%9B%E5%9F%8E%E6%AF%94%E5%B0%94</t>
@@ -1121,43 +1100,43 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A3%92%E5%A4%A7%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>美國職棒大聯盟</t>
+    <t>美国职棒大联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E6%B4%8B%E5%9F%BA</t>
   </si>
   <si>
-    <t>紐約洋基</t>
+    <t>纽约洋基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%A4%A7%E9%83%BD%E6%9C%83</t>
   </si>
   <si>
-    <t>紐約大都會</t>
+    <t>纽约大都会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>小聯盟</t>
+    <t>小联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E5%A4%AB%E8%98%AD%E5%8D%B0%E5%9C%B0%E5%AE%89%E4%BA%BA</t>
   </si>
   <si>
-    <t>克里夫蘭印地安人</t>
+    <t>克里夫兰印地安人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E9%9B%99%E5%9F%8E</t>
   </si>
   <si>
-    <t>明尼蘇達雙城</t>
+    <t>明尼苏达双城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%80%AB%E5%A4%9A%E8%97%8D%E9%B3%A5</t>
   </si>
   <si>
-    <t>多倫多藍鳥</t>
+    <t>多伦多蓝鸟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%95%E7%89%B9%E5%BE%8B%E8%80%81%E8%99%8E</t>
@@ -1169,43 +1148,43 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E5%A3%AB%E9%A0%93%E5%A4%AA%E7%A9%BA%E4%BA%BA</t>
   </si>
   <si>
-    <t>休士頓太空人</t>
+    <t>休士顿太空人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E5%B8%95%E7%81%A3%E5%85%89%E8%8A%92</t>
   </si>
   <si>
-    <t>坦帕灣光芒</t>
+    <t>坦帕湾光芒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%9F%8E%E8%B2%BB%E5%9F%8E%E4%BA%BA</t>
   </si>
   <si>
-    <t>費城費城人</t>
+    <t>费城费城人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E9%A6%AC%E6%9E%97%E9%AD%9A</t>
   </si>
   <si>
-    <t>佛羅里達馬林魚</t>
+    <t>佛罗里达马林鱼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A5%AD%E8%B6%B3%E7%90%83%E5%A4%A7%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>美國職業足球大聯盟</t>
+    <t>美国职业足球大联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E7%B4%85%E7%89%9B</t>
   </si>
   <si>
-    <t>紐約紅牛</t>
+    <t>纽约红牛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%9F%8E%E8%B6%B3%E7%90%83%E4%BF%B1%E6%A8%82%E9%83%A8</t>
   </si>
   <si>
-    <t>紐約城足球俱樂部</t>
+    <t>纽约城足球俱乐部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBA</t>
@@ -1217,13 +1196,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B0%BC%E5%85%8B</t>
   </si>
   <si>
-    <t>紐約尼克</t>
+    <t>纽约尼克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%AD%AF%E5%85%8B%E6%9E%97%E7%B1%83%E7%B6%B2</t>
   </si>
   <si>
-    <t>布魯克林籃網</t>
+    <t>布鲁克林篮网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NCAA</t>
@@ -1241,7 +1220,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E8%87%AA%E7%94%B1%E4%BA%BA</t>
   </si>
   <si>
-    <t>紐約自由人</t>
+    <t>纽约自由人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NHL</t>
@@ -1253,19 +1232,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B3%B6%E4%BA%BA</t>
   </si>
   <si>
-    <t>紐約島人</t>
+    <t>纽约岛人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E9%81%8A%E9%A8%8E%E5%85%B5</t>
   </si>
   <si>
-    <t>紐約遊騎兵</t>
+    <t>纽约游骑兵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E7%89%9B%E5%9F%8E%E8%BB%8D%E5%88%80</t>
   </si>
   <si>
-    <t>水牛城軍刀</t>
+    <t>水牛城军刀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AB%E7%91%B0</t>
@@ -1289,7 +1268,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>人類發展指數</t>
+    <t>人类发展指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/United_States_Geological_Survey</t>
@@ -1331,7 +1310,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E%E5%9F%8E%E5%B8%82%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>紐約州城市列表</t>
+    <t>纽约州城市列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%85%8B%E5%86%85%E5%85%8B%E5%A1%94%E8%BF%AA_(%E7%BA%BD%E7%BA%A6%E5%B7%9E)</t>
@@ -1349,13 +1328,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E6%BC%A2%E9%A0%93</t>
   </si>
   <si>
-    <t>賓漢頓</t>
+    <t>宾汉顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E4%BA%9E%E5%8A%A0%E6%8B%89%E7%80%91%E5%B8%83%E5%9F%8E_(%E7%B4%90%E7%B4%84%E5%B7%9E)</t>
   </si>
   <si>
-    <t>尼亞加拉瀑布城 (紐約州)</t>
+    <t>尼亚加拉瀑布城 (纽约州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%B0%94%E8%BF%88%E6%8B%89%E5%B8%82_(%E7%BA%BD%E7%BA%A6%E5%B7%9E)</t>
@@ -1373,7 +1352,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E5%80%AB%E6%96%AF%E7%A6%8F%E7%88%BE%E6%96%AF_(%E7%B4%90%E7%B4%84%E5%B7%9E)</t>
   </si>
   <si>
-    <t>格倫斯福爾斯 (紐約州)</t>
+    <t>格伦斯福尔斯 (纽约州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%E6%95%A6_(%E7%BA%BD%E7%BA%A6%E5%B7%9E)</t>
@@ -1385,13 +1364,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E5%A0%A1_(%E7%B4%90%E7%B4%84%E5%B7%9E)</t>
   </si>
   <si>
-    <t>紐堡 (紐約州)</t>
+    <t>纽堡 (纽约州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%BE%B7%E7%88%BE%E6%95%A6_(%E7%B4%90%E7%B4%84%E5%B7%9E)</t>
   </si>
   <si>
-    <t>米德爾敦 (紐約州)</t>
+    <t>米德尔敦 (纽约州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%9F%BA%E6%99%AE%E8%A5%BF%E5%B8%82_(%E7%BA%BD%E7%BA%A6%E5%B7%9E)</t>
@@ -1403,7 +1382,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%B1%E6%8F%90%E5%8D%A1_(%E7%B4%90%E7%B4%84%E5%B7%9E)</t>
   </si>
   <si>
-    <t>由提卡 (紐約州)</t>
+    <t>由提卡 (纽约州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC_(%E7%BA%BD%E7%BA%A6%E5%B7%9E)</t>
@@ -1487,9 +1466,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E5%8E%BF_(%E7%BA%BD%E7%BA%A6%E5%B7%9E)</t>
   </si>
   <si>
-    <t>伊利县 (纽约州)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%A1%9E%E5%85%8B%E6%96%AF%E5%8E%BF_(%E7%BA%BD%E7%BA%A6%E5%B7%9E)</t>
   </si>
   <si>
@@ -1523,7 +1499,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AF%86%E7%88%BE%E9%A0%93%E7%B8%A3_(%E7%B4%90%E7%B4%84%E5%B7%9E)</t>
   </si>
   <si>
-    <t>漢密爾頓縣 (紐約州)</t>
+    <t>汉密尔顿县 (纽约州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E5%9F%BA%E9%BB%98%E5%8E%BF_(%E7%BA%BD%E7%BA%A6%E5%B7%9E)</t>
@@ -1541,9 +1517,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%B2%81%E5%85%8B%E6%9E%97%E5%8C%BA</t>
   </si>
   <si>
-    <t>布鲁克林区</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%98%E6%98%93%E6%96%AF%E5%8E%BF_(%E7%BA%BD%E7%BA%A6%E5%B7%9E)</t>
   </si>
   <si>
@@ -1565,9 +1538,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%97%A8%E7%BD%97%E5%8E%BF_(%E7%BA%BD%E7%BA%A6%E5%B7%9E)</t>
   </si>
   <si>
-    <t>门罗县 (纽约州)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%93%A5%E9%A9%AC%E5%88%A9%E5%8E%BF_(%E7%BA%BD%E7%BA%A6%E5%B7%9E)</t>
   </si>
   <si>
@@ -1577,7 +1547,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E8%98%87%E7%B8%A3_(%E7%B4%90%E7%B4%84%E5%B7%9E)</t>
   </si>
   <si>
-    <t>納蘇縣 (紐約州)</t>
+    <t>纳苏县 (纽约州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E4%BA%9A%E5%8A%A0%E6%8B%89%E5%8E%BF_(%E7%BA%BD%E7%BA%A6%E5%B7%9E)</t>
@@ -1637,15 +1607,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E5%A1%9E%E5%8B%92%E7%B8%A3_(%E7%B4%90%E7%B4%84%E5%B7%9E)</t>
   </si>
   <si>
-    <t>倫塞勒縣 (紐約州)</t>
+    <t>伦塞勒县 (纽约州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E6%B3%B0%E7%99%BB%E5%B2%9B</t>
   </si>
   <si>
-    <t>史泰登岛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E5%85%8B%E5%85%B0%E5%8E%BF_(%E7%BA%BD%E7%BA%A6%E5%B7%9E)</t>
   </si>
   <si>
@@ -1691,7 +1658,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E7%A6%8F%E5%85%8B%E7%B8%A3_(%E7%B4%90%E7%B4%84%E5%B7%9E)</t>
   </si>
   <si>
-    <t>蘇福克縣 (紐約州)</t>
+    <t>苏福克县 (纽约州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%88%A9%E6%96%87%E5%8E%BF_(%E7%BA%BD%E7%BA%A6%E5%B7%9E)</t>
@@ -1715,7 +1682,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E6%96%AF%E7%89%B9%E7%B8%A3</t>
   </si>
   <si>
-    <t>阿爾斯特縣</t>
+    <t>阿尔斯特县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E4%BC%A6%E5%8E%BF_(%E7%BA%BD%E7%BA%A6%E5%B7%9E)</t>
@@ -1739,7 +1706,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E7%89%B9%E5%BE%B9%E6%96%AF%E7%89%B9%E9%83%A1</t>
   </si>
   <si>
-    <t>威斯特徹斯特郡</t>
+    <t>威斯特彻斯特郡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%80%E4%BF%84%E6%98%8E%E5%8E%BF_(%E7%BA%BD%E7%BA%A6%E5%B7%9E)</t>
@@ -1757,7 +1724,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
+    <t>美国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E</t>
@@ -1775,7 +1742,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
@@ -1787,13 +1754,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
@@ -1829,7 +1796,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>堪薩斯州</t>
+    <t>堪萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
@@ -1865,7 +1832,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
@@ -1877,7 +1844,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
+    <t>密苏里州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
@@ -1889,7 +1856,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>內布拉斯加州</t>
+    <t>内布拉斯加州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
@@ -1931,7 +1898,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧克拉荷馬州</t>
+    <t>奥克拉荷马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
@@ -1943,7 +1910,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
   </si>
   <si>
-    <t>羅德島州</t>
+    <t>罗德岛州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
@@ -1979,7 +1946,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>西維吉尼亞州</t>
+    <t>西维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
@@ -1991,7 +1958,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>聯邦地區</t>
+    <t>联邦地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -2003,19 +1970,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>島嶼地區</t>
+    <t>岛屿地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>美屬薩摩亞</t>
+    <t>美属萨摩亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
@@ -2033,7 +2000,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
@@ -2045,7 +2012,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
+    <t>威克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
@@ -2057,7 +2024,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>中途島</t>
+    <t>中途岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
@@ -2069,25 +2036,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
-    <t>帕邁拉環礁</t>
+    <t>帕迈拉环礁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>賈維斯島</t>
+    <t>贾维斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>貝克島</t>
+    <t>贝克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>豪蘭島</t>
+    <t>豪兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
@@ -2117,7 +2084,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2135,7 +2102,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2147,7 +2114,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -2159,7 +2126,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -4270,7 +4237,7 @@
         <v>121</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="G61" t="n">
         <v>11</v>
@@ -4296,10 +4263,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -4325,10 +4292,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>116</v>
@@ -4354,10 +4321,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -4383,10 +4350,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4412,10 +4379,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="G66" t="n">
         <v>11</v>
@@ -4441,10 +4408,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G67" t="n">
         <v>3</v>
@@ -4470,10 +4437,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4499,10 +4466,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4528,10 +4495,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -4557,10 +4524,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4586,10 +4553,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4615,10 +4582,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4644,10 +4611,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G74" t="n">
         <v>3</v>
@@ -4673,10 +4640,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -4702,10 +4669,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4731,10 +4698,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G77" t="n">
         <v>59</v>
@@ -4760,10 +4727,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4789,10 +4756,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4818,10 +4785,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4847,10 +4814,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4876,10 +4843,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4905,10 +4872,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4934,10 +4901,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4963,10 +4930,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4992,10 +4959,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -5021,10 +4988,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5050,10 +5017,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G88" t="n">
         <v>4</v>
@@ -5079,10 +5046,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -5108,10 +5075,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -5137,10 +5104,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5166,10 +5133,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5195,10 +5162,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F93" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5224,10 +5191,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F94" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -5253,10 +5220,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F95" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5282,10 +5249,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -5311,10 +5278,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F97" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G97" t="n">
         <v>20</v>
@@ -5340,10 +5307,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F98" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5369,10 +5336,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F99" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G99" t="n">
         <v>17</v>
@@ -5398,10 +5365,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F100" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G100" t="n">
         <v>4</v>
@@ -5427,10 +5394,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F101" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G101" t="n">
         <v>4</v>
@@ -5456,10 +5423,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F102" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5485,10 +5452,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F103" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5514,10 +5481,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F104" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -5543,10 +5510,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F105" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5572,10 +5539,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F106" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5601,10 +5568,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F107" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5630,10 +5597,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F108" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5659,10 +5626,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F109" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5688,10 +5655,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F110" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5717,10 +5684,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F111" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5746,10 +5713,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F112" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5775,10 +5742,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F113" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5804,10 +5771,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F114" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5833,10 +5800,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F115" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5862,10 +5829,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F116" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5891,10 +5858,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F117" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G117" t="n">
         <v>3</v>
@@ -5920,10 +5887,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F118" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -5949,10 +5916,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F119" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5978,10 +5945,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F120" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6007,10 +5974,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F121" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -6036,10 +6003,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F122" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G122" t="n">
         <v>3</v>
@@ -6065,10 +6032,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F123" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6094,10 +6061,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F124" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6152,10 +6119,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6181,10 +6148,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -6210,10 +6177,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6239,10 +6206,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -6268,10 +6235,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6297,10 +6264,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6326,10 +6293,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6355,10 +6322,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6384,10 +6351,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6413,10 +6380,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6442,10 +6409,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="G136" t="n">
         <v>20</v>
@@ -6471,10 +6438,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6500,10 +6467,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F138" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6529,10 +6496,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F139" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6558,10 +6525,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F140" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6587,10 +6554,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F141" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G141" t="n">
         <v>5</v>
@@ -6616,10 +6583,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F142" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -6645,10 +6612,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F143" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6674,10 +6641,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F144" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6703,10 +6670,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F145" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6732,10 +6699,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F146" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6761,10 +6728,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F147" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -6790,10 +6757,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F148" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6819,10 +6786,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F149" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6848,10 +6815,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F150" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6877,10 +6844,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F151" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -6906,10 +6873,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F152" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6935,10 +6902,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F153" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6964,10 +6931,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F154" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6993,10 +6960,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F155" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7022,10 +6989,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F156" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7051,10 +7018,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F157" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7080,10 +7047,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F158" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7109,10 +7076,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F159" t="s">
-        <v>316</v>
+        <v>104</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7138,10 +7105,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F160" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7167,10 +7134,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F161" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7196,10 +7163,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F162" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7225,10 +7192,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F163" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7254,10 +7221,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F164" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7283,10 +7250,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F165" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7312,10 +7279,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F166" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7341,10 +7308,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F167" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7370,10 +7337,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F168" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7399,10 +7366,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F169" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7428,10 +7395,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F170" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7457,10 +7424,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F171" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7486,10 +7453,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F172" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7515,10 +7482,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F173" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7544,10 +7511,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F174" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7573,10 +7540,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F175" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7602,10 +7569,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F176" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7631,10 +7598,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F177" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7660,10 +7627,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F178" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7689,10 +7656,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F179" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7718,10 +7685,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F180" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7747,10 +7714,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F181" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7776,10 +7743,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F182" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -7805,10 +7772,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F183" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7834,10 +7801,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F184" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7863,10 +7830,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F185" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7892,10 +7859,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F186" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -7921,10 +7888,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F187" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G187" t="n">
         <v>3</v>
@@ -7950,10 +7917,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F188" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7979,10 +7946,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F189" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8008,10 +7975,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F190" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8037,10 +8004,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F191" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="G191" t="n">
         <v>2</v>
@@ -8066,10 +8033,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="F192" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8095,10 +8062,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F193" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8124,10 +8091,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F194" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8153,10 +8120,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F195" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8182,10 +8149,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F196" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8211,10 +8178,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F197" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8240,10 +8207,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F198" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8269,10 +8236,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F199" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8298,10 +8265,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="F200" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="G200" t="n">
         <v>2</v>
@@ -8327,10 +8294,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F201" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8356,10 +8323,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F202" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8385,10 +8352,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F203" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -8414,10 +8381,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="F204" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8443,10 +8410,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F205" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8472,10 +8439,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F206" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="G206" t="n">
         <v>2</v>
@@ -8501,10 +8468,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F207" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8530,10 +8497,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F208" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8559,10 +8526,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F209" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8588,10 +8555,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F210" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8617,10 +8584,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F211" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8646,10 +8613,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="F212" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -8675,10 +8642,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="F213" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="G213" t="n">
         <v>2</v>
@@ -8704,10 +8671,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="F214" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8733,10 +8700,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="F215" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8762,10 +8729,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="F216" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8791,10 +8758,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="F217" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8820,10 +8787,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F218" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="G218" t="n">
         <v>4</v>
@@ -8849,10 +8816,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="F219" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8878,10 +8845,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="F220" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8907,10 +8874,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F221" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="G221" t="n">
         <v>2</v>
@@ -8936,10 +8903,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F222" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8965,10 +8932,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="F223" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="G223" t="n">
         <v>2</v>
@@ -9023,10 +8990,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="F225" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9052,10 +9019,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F226" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9081,10 +9048,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F227" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9110,10 +9077,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F228" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9139,10 +9106,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="F229" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9197,10 +9164,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F231" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9226,10 +9193,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="F232" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9255,10 +9222,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F233" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9284,10 +9251,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F234" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9313,10 +9280,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F235" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9342,10 +9309,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F236" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9371,10 +9338,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F237" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9400,10 +9367,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="F238" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9429,10 +9396,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F239" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9458,10 +9425,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F240" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9487,10 +9454,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F241" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9516,10 +9483,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F242" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9545,10 +9512,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="F243" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9574,10 +9541,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="F244" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9603,10 +9570,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="F245" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9632,10 +9599,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="F246" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="G246" t="n">
         <v>2</v>
@@ -9661,10 +9628,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="F247" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9690,10 +9657,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="F248" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="G248" t="n">
         <v>2</v>
@@ -9719,10 +9686,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="F249" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9748,10 +9715,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="F250" t="s">
-        <v>490</v>
+        <v>266</v>
       </c>
       <c r="G250" t="n">
         <v>6</v>
@@ -9777,10 +9744,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="F251" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9806,10 +9773,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="F252" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9835,10 +9802,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="F253" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9864,10 +9831,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="F254" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9893,10 +9860,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="F255" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9922,10 +9889,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="F256" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9951,10 +9918,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="F257" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9980,10 +9947,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="F258" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10009,10 +9976,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="F259" t="s">
-        <v>508</v>
+        <v>185</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10038,10 +10005,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="F260" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10067,10 +10034,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="F261" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10096,10 +10063,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="F262" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10125,10 +10092,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="F263" t="s">
-        <v>516</v>
+        <v>263</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10154,10 +10121,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="F264" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10183,10 +10150,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="F265" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10212,10 +10179,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="F266" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="G266" t="n">
         <v>3</v>
@@ -10241,10 +10208,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="F267" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10270,10 +10237,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="F268" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10299,10 +10266,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="F269" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="G269" t="n">
         <v>4</v>
@@ -10328,10 +10295,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="F270" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10357,10 +10324,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="F271" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10386,10 +10353,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="F272" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10415,10 +10382,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="F273" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10444,10 +10411,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F274" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10473,10 +10440,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F275" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G275" t="n">
         <v>5</v>
@@ -10502,10 +10469,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="F276" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10531,10 +10498,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="F277" t="s">
-        <v>542</v>
+        <v>199</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10560,10 +10527,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="F278" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10589,10 +10556,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="F279" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10618,10 +10585,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="F280" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10647,10 +10614,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="F281" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10676,10 +10643,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="F282" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10705,10 +10672,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="F283" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10734,10 +10701,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="F284" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10763,10 +10730,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="F285" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10792,10 +10759,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="F286" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10821,10 +10788,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="F287" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10850,10 +10817,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="F288" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10879,10 +10846,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="F289" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10908,10 +10875,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="F290" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10937,10 +10904,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="F291" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G291" t="n">
         <v>3</v>
@@ -10966,10 +10933,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="F292" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10995,10 +10962,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="F293" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11024,10 +10991,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="F294" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="G294" t="n">
         <v>2</v>
@@ -11053,10 +11020,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="F295" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11082,10 +11049,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="F296" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11111,10 +11078,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="F297" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11140,10 +11107,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="F298" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11169,10 +11136,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="F299" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11198,10 +11165,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="F300" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11227,10 +11194,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F301" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11256,10 +11223,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="F302" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11285,10 +11252,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F303" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G303" t="n">
         <v>2</v>
@@ -11314,10 +11281,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F304" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G304" t="n">
         <v>3</v>
@@ -11343,10 +11310,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="F305" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11372,10 +11339,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="F306" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11401,10 +11368,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="F307" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11430,10 +11397,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="F308" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11459,10 +11426,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="F309" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11488,10 +11455,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="F310" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11517,10 +11484,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="F311" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11546,10 +11513,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="F312" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11575,10 +11542,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="F313" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11604,10 +11571,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="F314" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11633,10 +11600,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="F315" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11662,10 +11629,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F316" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G316" t="n">
         <v>2</v>
@@ -11691,10 +11658,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="F317" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11720,10 +11687,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="F318" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="G318" t="n">
         <v>2</v>
@@ -11749,10 +11716,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="F319" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11778,10 +11745,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="F320" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11807,10 +11774,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="F321" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11836,10 +11803,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="F322" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11865,10 +11832,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="F323" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11894,10 +11861,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="F324" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11923,10 +11890,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F325" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G325" t="n">
         <v>2</v>
@@ -11952,10 +11919,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="F326" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11981,10 +11948,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="F327" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12010,10 +11977,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="F328" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12039,10 +12006,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="F329" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12068,10 +12035,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="F330" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12097,10 +12064,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="F331" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12126,10 +12093,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F332" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G332" t="n">
         <v>2</v>
@@ -12155,10 +12122,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="F333" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12184,10 +12151,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="F334" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12213,10 +12180,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="F335" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12242,10 +12209,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="F336" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12271,10 +12238,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F337" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12300,10 +12267,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="F338" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12329,10 +12296,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F339" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G339" t="n">
         <v>3</v>
@@ -12358,10 +12325,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="F340" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="G340" t="n">
         <v>2</v>
@@ -12387,10 +12354,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="F341" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12416,10 +12383,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="F342" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12445,10 +12412,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="F343" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12474,10 +12441,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="F344" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12503,10 +12470,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="F345" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12532,10 +12499,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="F346" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12561,10 +12528,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="F347" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12590,10 +12557,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="F348" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12619,10 +12586,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="F349" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12648,10 +12615,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="F350" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12677,10 +12644,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="F351" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12706,10 +12673,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="F352" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12735,10 +12702,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="F353" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12764,10 +12731,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="F354" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12793,10 +12760,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="F355" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -12822,10 +12789,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="F356" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12851,10 +12818,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="F357" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -12880,10 +12847,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="F358" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -12909,10 +12876,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="F359" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -12938,10 +12905,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="F360" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -12967,10 +12934,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="F361" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -12996,10 +12963,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="F362" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13025,10 +12992,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="F363" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13054,10 +13021,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="F364" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="G364" t="n">
         <v>3</v>
@@ -13083,10 +13050,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="F365" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13112,10 +13079,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="F366" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13141,10 +13108,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="F367" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13170,10 +13137,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="F368" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13199,10 +13166,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="F369" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13228,10 +13195,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="F370" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13257,10 +13224,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="F371" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
